--- a/Dado_Covid-19_Pouso_Alegre.xlsx
+++ b/Dado_Covid-19_Pouso_Alegre.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\lucas.lp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faculdade\4º Período\Técnicas de Programação IV\projeto_StatusCovidMG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6711AA0-222E-4119-845E-33738F076109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E261C39-CF52-4FC7-9CD7-41CAD7545ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C9DFC00-38B8-42B6-8896-7A80B5994459}"/>
+    <workbookView xWindow="-20610" yWindow="1740" windowWidth="20730" windowHeight="11310" xr2:uid="{3C9DFC00-38B8-42B6-8896-7A80B5994459}"/>
   </bookViews>
   <sheets>
     <sheet name="Pouso Alegre - 230320 310720" sheetId="1" r:id="rId1"/>
-    <sheet name="Pouso Alegre - 010820 311220" sheetId="2" r:id="rId2"/>
-    <sheet name="Pouso Alegre - 010121 300621" sheetId="3" r:id="rId3"/>
-    <sheet name="Pouso Alegre - 010721 261021" sheetId="4" r:id="rId4"/>
+    <sheet name="Pouso Alegre - 010820 311220" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Pouso Alegre - 010121 300621" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Pouso Alegre - 010721 261021" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pouso Alegre - 230320 310720'!$B$1:$N$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -153,6 +156,7829 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pouso Alegre - 230320 310720'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>semanaEpi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Pouso Alegre - 230320 310720'!$H$2:$H$580</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="579"/>
+                <c:pt idx="0">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44024</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44026</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44031</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>44199</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>44200</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>44206</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>44208</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>44213</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>44214</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>44215</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>44229</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>44234</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>44235</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>44236</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>44237</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>44238</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>44240</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>44241</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>44242</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>44243</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>44244</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>44245</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>44247</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>44248</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>44249</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>44251</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>44252</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>44254</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>44257</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>44261</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>44262</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>44263</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>44264</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>44267</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>44268</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>44269</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>44271</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>44272</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>44274</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>44275</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>44276</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>44277</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>44278</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>44279</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>44281</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>44282</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>44283</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>44284</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>44285</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>44288</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>44289</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>44290</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>44291</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>44292</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>44293</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>44294</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>44295</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>44296</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>44297</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>44298</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>44299</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>44300</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>44301</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>44302</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>44303</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>44304</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>44305</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>44306</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>44307</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>44308</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>44309</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>44310</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>44311</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>44312</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>44313</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>44314</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>44315</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>44318</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>44319</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>44320</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>44322</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>44323</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>44324</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>44325</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>44326</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>44327</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>44328</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>44329</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>44330</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>44331</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>44332</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>44333</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>44334</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>44335</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>44336</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>44337</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>44338</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>44339</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>44340</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>44341</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>44342</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>44343</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>44344</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>44345</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>44346</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>44349</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>44350</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>44351</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>44352</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>44353</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>44354</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>44355</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>44356</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>44357</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>44358</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>44359</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>44360</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>44361</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>44362</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>44363</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>44364</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>44365</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>44366</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>44367</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>44368</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>44369</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>44370</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>44371</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>44372</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>44373</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>44374</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>44375</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>44376</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>44379</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>44380</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>44381</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>44382</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>44383</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>44384</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>44385</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>44386</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>44387</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>44388</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>44389</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>44390</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>44391</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>44392</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>44393</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>44394</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>44395</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>44396</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>44397</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>44398</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>44399</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>44400</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>44401</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>44402</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>44403</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>44404</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>44405</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>44406</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>44408</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>44410</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>44411</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>44412</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>44413</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>44414</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>44415</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>44416</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>44417</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>44418</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>44419</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>44420</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>44421</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>44422</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>44423</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>44424</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>44425</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>44426</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>44427</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>44428</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>44429</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>44430</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>44431</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>44432</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>44433</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>44434</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>44435</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>44436</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>44437</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>44438</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>44441</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>44442</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>44443</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>44444</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>44445</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>44446</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>44447</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>44448</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>44449</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>44450</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>44451</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>44452</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>44453</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>44454</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>44455</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>44456</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>44457</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>44458</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>44459</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>44460</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>44461</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>44463</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>44465</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>44466</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>44467</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>44468</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>44471</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>44472</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>44474</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>44476</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>44478</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>44479</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>44483</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>44485</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>44486</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>44488</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>44490</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>44491</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>44492</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>44493</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>44494</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>44495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pouso Alegre - 230320 310720'!$I$2:$I$580</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9A7-4A5B-B928-ABF04400FE80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pouso Alegre - 230320 310720'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>populacaoTCU2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Pouso Alegre - 230320 310720'!$H$2:$H$580</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="579"/>
+                <c:pt idx="0">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44024</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44026</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44031</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>44199</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>44200</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>44206</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>44208</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>44213</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>44214</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>44215</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>44229</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>44234</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>44235</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>44236</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>44237</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>44238</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>44240</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>44241</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>44242</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>44243</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>44244</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>44245</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>44247</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>44248</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>44249</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>44251</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>44252</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>44254</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>44257</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>44261</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>44262</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>44263</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>44264</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>44267</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>44268</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>44269</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>44271</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>44272</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>44274</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>44275</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>44276</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>44277</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>44278</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>44279</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>44281</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>44282</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>44283</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>44284</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>44285</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>44288</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>44289</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>44290</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>44291</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>44292</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>44293</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>44294</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>44295</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>44296</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>44297</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>44298</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>44299</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>44300</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>44301</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>44302</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>44303</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>44304</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>44305</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>44306</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>44307</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>44308</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>44309</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>44310</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>44311</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>44312</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>44313</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>44314</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>44315</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>44318</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>44319</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>44320</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>44322</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>44323</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>44324</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>44325</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>44326</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>44327</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>44328</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>44329</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>44330</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>44331</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>44332</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>44333</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>44334</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>44335</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>44336</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>44337</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>44338</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>44339</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>44340</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>44341</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>44342</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>44343</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>44344</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>44345</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>44346</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>44349</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>44350</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>44351</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>44352</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>44353</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>44354</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>44355</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>44356</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>44357</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>44358</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>44359</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>44360</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>44361</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>44362</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>44363</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>44364</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>44365</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>44366</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>44367</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>44368</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>44369</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>44370</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>44371</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>44372</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>44373</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>44374</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>44375</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>44376</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>44379</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>44380</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>44381</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>44382</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>44383</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>44384</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>44385</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>44386</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>44387</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>44388</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>44389</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>44390</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>44391</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>44392</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>44393</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>44394</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>44395</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>44396</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>44397</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>44398</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>44399</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>44400</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>44401</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>44402</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>44403</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>44404</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>44405</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>44406</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>44408</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>44410</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>44411</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>44412</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>44413</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>44414</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>44415</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>44416</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>44417</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>44418</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>44419</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>44420</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>44421</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>44422</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>44423</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>44424</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>44425</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>44426</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>44427</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>44428</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>44429</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>44430</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>44431</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>44432</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>44433</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>44434</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>44435</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>44436</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>44437</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>44438</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>44441</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>44442</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>44443</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>44444</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>44445</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>44446</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>44447</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>44448</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>44449</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>44450</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>44451</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>44452</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>44453</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>44454</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>44455</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>44456</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>44457</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>44458</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>44459</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>44460</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>44461</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>44463</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>44465</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>44466</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>44467</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>44468</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>44471</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>44472</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>44474</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>44476</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>44478</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>44479</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>44483</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>44485</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>44486</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>44488</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>44490</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>44491</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>44492</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>44493</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>44494</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>44495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pouso Alegre - 230320 310720'!$J$2:$J$580</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B9A7-4A5B-B928-ABF04400FE80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pouso Alegre - 230320 310720'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>casosAcumulado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:tint val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Pouso Alegre - 230320 310720'!$H$2:$H$580</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="579"/>
+                <c:pt idx="0">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44024</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44026</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44031</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>44199</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>44200</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>44206</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>44208</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>44213</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>44214</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>44215</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>44229</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>44234</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>44235</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>44236</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>44237</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>44238</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>44240</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>44241</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>44242</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>44243</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>44244</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>44245</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>44247</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>44248</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>44249</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>44251</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>44252</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>44254</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>44257</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>44261</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>44262</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>44263</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>44264</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>44267</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>44268</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>44269</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>44271</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>44272</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>44274</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>44275</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>44276</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>44277</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>44278</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>44279</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>44281</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>44282</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>44283</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>44284</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>44285</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>44288</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>44289</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>44290</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>44291</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>44292</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>44293</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>44294</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>44295</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>44296</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>44297</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>44298</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>44299</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>44300</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>44301</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>44302</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>44303</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>44304</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>44305</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>44306</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>44307</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>44308</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>44309</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>44310</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>44311</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>44312</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>44313</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>44314</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>44315</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>44318</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>44319</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>44320</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>44322</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>44323</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>44324</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>44325</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>44326</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>44327</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>44328</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>44329</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>44330</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>44331</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>44332</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>44333</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>44334</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>44335</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>44336</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>44337</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>44338</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>44339</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>44340</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>44341</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>44342</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>44343</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>44344</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>44345</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>44346</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>44349</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>44350</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>44351</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>44352</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>44353</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>44354</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>44355</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>44356</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>44357</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>44358</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>44359</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>44360</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>44361</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>44362</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>44363</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>44364</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>44365</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>44366</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>44367</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>44368</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>44369</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>44370</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>44371</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>44372</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>44373</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>44374</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>44375</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>44376</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>44379</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>44380</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>44381</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>44382</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>44383</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>44384</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>44385</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>44386</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>44387</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>44388</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>44389</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>44390</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>44391</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>44392</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>44393</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>44394</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>44395</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>44396</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>44397</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>44398</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>44399</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>44400</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>44401</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>44402</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>44403</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>44404</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>44405</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>44406</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>44408</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>44410</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>44411</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>44412</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>44413</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>44414</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>44415</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>44416</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>44417</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>44418</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>44419</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>44420</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>44421</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>44422</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>44423</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>44424</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>44425</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>44426</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>44427</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>44428</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>44429</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>44430</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>44431</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>44432</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>44433</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>44434</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>44435</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>44436</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>44437</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>44438</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>44441</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>44442</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>44443</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>44444</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>44445</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>44446</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>44447</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>44448</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>44449</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>44450</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>44451</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>44452</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>44453</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>44454</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>44455</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>44456</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>44457</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>44458</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>44459</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>44460</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>44461</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>44463</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>44465</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>44466</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>44467</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>44468</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>44471</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>44472</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>44474</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>44476</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>44478</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>44479</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>44483</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>44485</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>44486</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>44488</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>44490</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>44491</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>44492</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>44493</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>44494</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>44495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pouso Alegre - 230320 310720'!$K$2:$K$580</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="579"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>853</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>907</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1047</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1116</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1143</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1279</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1389</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1484</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1517</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1559</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1565</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1570</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1570</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1657</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1706</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1811</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1892</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2138</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2177</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2225</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2252</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2252</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2272</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2294</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2397</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2473</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2570</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2606</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2606</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2644</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2690</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2717</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2737</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2733</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2754</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2754</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2818</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2812</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2823</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2835</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2914</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2944</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2922</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2963</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3031</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3341</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3354</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3079</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3092</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3106</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3110</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3118</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3121</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3121</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>3144</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3151</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>3163</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>3169</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>3169</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>3169</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3211</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3218</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3218</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3254</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3254</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3267</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3281</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3291</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3304</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3307</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3307</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3307</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3307</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3329</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3329</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3334</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3354</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3374</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>3374</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3374</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>3393</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>3408</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>3421</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>3421</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3435</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>3461</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>3472</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>3481</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>3499</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>3506</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3526</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3526</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3526</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3566</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3596</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3605</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3626</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>3665</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>3665</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>3680</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>3680</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>3692</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>3741</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>3741</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3756</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3786</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3786</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3797</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3797</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3833</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3907</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3942</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3942</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>3966</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3973</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3997</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>4032</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4073</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>4081</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>4081</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>4092</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>4115</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>4115</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>4263</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>4327</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>4339</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>4376</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>4376</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>4397</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>4422</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>4422</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>4503</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>4515</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>4614</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>4634</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>4747</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>4803</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>4803</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>4909</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>4909</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>4950</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>5084</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5104</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>5158</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>5172</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>5273</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>5316</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>5352</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>5381</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>5405</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>5460</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>5530</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>5582</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>5599</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>5717</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>5717</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>5737</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>5787</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>5787</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>5812</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>5864</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>5864</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>5864</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>5917</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>6052</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>6107</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>6211</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>6248</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>6248</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>6248</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>6292</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>6411</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>6489</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>6572</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>6572</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>6572</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>6572</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>6638</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>6778</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>6778</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>6924</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>6924</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>6924</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>6949</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>6972</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>7156</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>7207</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>7259</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>7259</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>7377</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>7377</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>7461</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>7461</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>7719</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>7719</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>7836</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>7836</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>8041</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>8080</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>8193</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>8193</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>8435</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>8953</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>8953</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>9068</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>9110</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>9110</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>9333</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>9645</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>10309</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>10309</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>10309</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>10309</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>10493</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>11136</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>11136</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>11292</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>11292</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>11292</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>11292</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>11920</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>12082</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>12150</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>12383</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>12759</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>12759</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>12900</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>12900</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>13265</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>13383</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>13383</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>13383</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>13383</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>13585</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>13585</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>13878</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>14074</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>14074</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>14165</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>14165</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>14338</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>14391</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>14391</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>14642</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>14642</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>14642</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>14738</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>14801</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>14801</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>14931</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>14931</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>15236</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>15236</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>15453</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>15453</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>15453</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>15673</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>15780</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>15884</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>15991</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>15991</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>16093</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>16093</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>16358</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>16358</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>16789</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>16789</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>16905</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>16905</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>17008</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>17085</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>17308</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>17308</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>17415</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>17506</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>17686</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>17803</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>17803</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>17803</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>18087</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>18087</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>18376</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>18589</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>18589</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>18767</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>18922</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>18922</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>18922</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>19223</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>19223</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>19423</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>19427</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>19668</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>19776</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>19776</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>19776</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>19888</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>20202</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>20202</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>20300</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>20462</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>20462</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>20462</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>20683</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>20683</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>20845</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>20933</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>20990</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>20990</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>21178</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>21178</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>21256</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>21436</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>21580</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>21627</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>21627</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>21839</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>21839</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>21905</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>22012</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>22108</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>22108</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>22108</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>22400</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>22400</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>22400</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>22670</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>22670</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>22670</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>22763</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>22763</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>22857</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>22982</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>22982</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>23032</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>23032</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>23032</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>23175</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>23175</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>23279</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>23279</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>23279</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>23279</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>23279</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>23378</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>23500</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>23573</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>23573</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>23573</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>23649</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>23649</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>23699</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>23699</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>23699</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>23810</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>23810</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>23860</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>23860</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>23866</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>23915</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>23915</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>23983</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>24022</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>24022</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>24022</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>24044</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>24072</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>24072</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>24108</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>24108</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>24153</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>24153</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>24170</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>24170</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>24186</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>24234</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>24234</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>24234</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>24234</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>24253</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>24283</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>24321</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>24321</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>24321</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>24321</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>24321</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>24343</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>24381</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>24381</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>24381</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>24381</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>24396</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>24396</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>24396</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>24396</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>24444</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>24444</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>24458</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>24458</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>24507</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>24507</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>24520</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>24507</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>24507</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>24507</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>24507</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>24507</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>24577</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>24577</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>24585</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>24585</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>24597</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>24597</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>24597</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>24597</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>24597</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>24597</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>24597</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>24622</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>24622</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>24622</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>24677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B9A7-4A5B-B928-ABF04400FE80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1307473951"/>
+        <c:axId val="1307473119"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="1307473951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1307473119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1307473119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1307473951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>561</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>575</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE380AA2-3A38-4719-BA48-76949F88E075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,26 +8280,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F968C-96C9-4DF4-9465-37147A601D9C}">
   <dimension ref="A1:Q580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="H560" workbookViewId="0">
+      <selection activeCell="T579" sqref="T579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="6" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="26.28515625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="21.7109375" hidden="1" customWidth="1"/>
@@ -25931,7 +33757,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:N1" xr:uid="{AB1F968C-96C9-4DF4-9465-37147A601D9C}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
